--- a/output/est-removals-ha.xlsx
+++ b/output/est-removals-ha.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,47 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>biomes_sig</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>sum_removal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Median</t>
+          <t>sum_ha</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SSE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Skw</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Krt</t>
+          <t>sum_removal_ha</t>
         </is>
       </c>
     </row>
@@ -413,96 +388,342 @@
       <c r="A2">
         <v>2021</v>
       </c>
-      <c r="B2">
-        <v>-8777.238211583552</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
       </c>
       <c r="C2">
-        <v>-0.1213599664230899</v>
+        <v>-323906754.379146</v>
       </c>
       <c r="D2">
-        <v>-0.05813757818251922</v>
+        <v>2091798884.266725</v>
       </c>
       <c r="E2">
-        <v>0.5591765967318461</v>
-      </c>
-      <c r="F2">
-        <v>0.002048224699132716</v>
-      </c>
-      <c r="G2">
-        <v>-17.43698830456139</v>
-      </c>
-      <c r="H2">
-        <v>5.27910430832494</v>
-      </c>
-      <c r="I2">
-        <v>-11.05945104145467</v>
-      </c>
-      <c r="J2">
-        <v>333.3277279854925</v>
+        <v>-0.1548460307610742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2022</v>
-      </c>
-      <c r="B3">
-        <v>26602.04145045832</v>
+        <v>2021</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AMZ</t>
+        </is>
       </c>
       <c r="C3">
-        <v>0.367817618639156</v>
+        <v>685982766.5406247</v>
       </c>
       <c r="D3">
-        <v>0.2330380686948484</v>
+        <v>5616477035.427435</v>
       </c>
       <c r="E3">
-        <v>0.7836768129742027</v>
-      </c>
-      <c r="F3">
-        <v>0.002870553263231655</v>
-      </c>
-      <c r="G3">
-        <v>-1.335567751792572</v>
-      </c>
-      <c r="H3">
-        <v>20.54751128961059</v>
-      </c>
-      <c r="I3">
-        <v>13.7271652150901</v>
-      </c>
-      <c r="J3">
-        <v>289.9669580473217</v>
+        <v>0.1221375538818381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CAAT</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>-272603694.4970437</v>
+      </c>
+      <c r="D4">
+        <v>1429327349.611023</v>
+      </c>
+      <c r="E4">
+        <v>-0.1907216667834909</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CERR</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>133325351.556758</v>
+      </c>
+      <c r="D5">
+        <v>2500212128.95899</v>
+      </c>
+      <c r="E5">
+        <v>0.05332561585975126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PMP</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>29730567.8439153</v>
+      </c>
+      <c r="D6">
+        <v>227125558.0243705</v>
+      </c>
+      <c r="E6">
+        <v>0.1308992616353868</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PNT</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>33861454.873</v>
+      </c>
+      <c r="D7">
+        <v>214433403.7632375</v>
+      </c>
+      <c r="E7">
+        <v>0.1579112875081136</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>485398301.4161426</v>
+      </c>
+      <c r="D8">
+        <v>2091798884.266725</v>
+      </c>
+      <c r="E8">
+        <v>0.2320482648054848</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AMZ</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>1660479082.564546</v>
+      </c>
+      <c r="D9">
+        <v>5616477035.427435</v>
+      </c>
+      <c r="E9">
+        <v>0.2956442396346728</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CAAT</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>514840189.9226552</v>
+      </c>
+      <c r="D10">
+        <v>1429327349.611023</v>
+      </c>
+      <c r="E10">
+        <v>0.3601975363185793</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CERR</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>878391192.6120528</v>
+      </c>
+      <c r="D11">
+        <v>2500212128.95899</v>
+      </c>
+      <c r="E11">
+        <v>0.3513266664208158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PMP</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>38580707.34233644</v>
+      </c>
+      <c r="D12">
+        <v>227125558.0243705</v>
+      </c>
+      <c r="E12">
+        <v>0.1698651075551644</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PNT</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>80785798.2465</v>
+      </c>
+      <c r="D13">
+        <v>214433403.7632375</v>
+      </c>
+      <c r="E13">
+        <v>0.3767407354858672</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B4">
-        <v>6110.881349587844</v>
-      </c>
-      <c r="C4">
-        <v>0.08449313297920252</v>
-      </c>
-      <c r="D4">
-        <v>0.04498254745521971</v>
-      </c>
-      <c r="E4">
-        <v>0.3386401458671497</v>
-      </c>
-      <c r="F4">
-        <v>0.001240415129919366</v>
-      </c>
-      <c r="G4">
-        <v>-2.339613757856612</v>
-      </c>
-      <c r="H4">
-        <v>8.287453481006713</v>
-      </c>
-      <c r="I4">
-        <v>13.20593412295783</v>
-      </c>
-      <c r="J4">
-        <v>284.2724046164785</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>41282749.8188653</v>
+      </c>
+      <c r="D14">
+        <v>2091798884.266725</v>
+      </c>
+      <c r="E14">
+        <v>0.01973552530760474</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AMZ</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>1063160075.171129</v>
+      </c>
+      <c r="D15">
+        <v>5616477035.427435</v>
+      </c>
+      <c r="E15">
+        <v>0.189293051224987</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2023</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CAAT</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>29530305.1327424</v>
+      </c>
+      <c r="D16">
+        <v>1429327349.611023</v>
+      </c>
+      <c r="E16">
+        <v>0.02066028131398925</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2023</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CERR</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>481811277.8890184</v>
+      </c>
+      <c r="D17">
+        <v>2500212128.95899</v>
+      </c>
+      <c r="E17">
+        <v>0.1927081595630965</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2023</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PMP</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>-13519842.35150353</v>
+      </c>
+      <c r="D18">
+        <v>227125558.0243705</v>
+      </c>
+      <c r="E18">
+        <v>-0.05952585199615823</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2023</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PNT</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>56891085.3447</v>
+      </c>
+      <c r="D19">
+        <v>214433403.7632375</v>
+      </c>
+      <c r="E19">
+        <v>0.2653088760719165</v>
       </c>
     </row>
   </sheetData>
